--- a/data/lab05/out/people.xlsx
+++ b/data/lab05/out/people.xlsx
@@ -420,6 +420,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -449,10 +455,8 @@
           <t>Анна</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="B2" t="n">
+        <v>25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -471,10 +475,8 @@
           <t>Иван</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="B3" t="n">
+        <v>30</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -493,10 +495,8 @@
           <t>Мария</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="B4" t="n">
+        <v>28</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
